--- a/data/result/AHP・必要物フィルタによる解析結果.xlsx
+++ b/data/result/AHP・必要物フィルタによる解析結果.xlsx
@@ -393,10 +393,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
